--- a/game_res/xlsx/building.xlsx
+++ b/game_res/xlsx/building.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="建筑" sheetId="1" r:id="rId1"/>
-    <sheet name="升级 Cd" sheetId="2" r:id="rId2"/>
+    <sheet name="建筑升级" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,31 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民居</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PosX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PosY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CityId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>建筑 Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,7 +39,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>所需银两</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启所需角色等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>主城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁匠铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁匠铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒馆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,19 +100,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,9 +140,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -457,67 +483,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.19921875" style="1"/>
+    <col min="1" max="1" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.19921875" style="1"/>
+    <col min="4" max="4" width="16.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1001</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1">
-        <v>100</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1001</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -533,249 +566,453 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="7.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
+        <v>200</v>
+      </c>
+      <c r="D2" s="1">
         <v>60000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
+        <v>500</v>
+      </c>
+      <c r="D3" s="1">
         <v>300000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="1">
         <v>540000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="1">
         <v>780000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="1">
         <v>1020000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="1">
         <v>1260000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D8" s="1">
         <v>1500000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D9" s="1">
         <v>1740000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D10" s="1">
         <v>1980000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="1">
+        <v>200000</v>
+      </c>
+      <c r="D11" s="1">
         <v>2220000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="1">
+        <v>500000</v>
+      </c>
+      <c r="D12" s="1">
         <v>2460000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D13" s="1">
         <v>2700000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="D14" s="1">
         <v>2940000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="D15" s="1">
         <v>3180000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
       </c>
       <c r="C16" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="D16" s="1">
         <v>3420000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="1">
-        <v>16</v>
-      </c>
       <c r="C17" s="1">
-        <v>3660000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+      <c r="D17" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="B18" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>3900000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+      <c r="D18" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="B19" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1">
-        <v>4140000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="B20" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1">
-        <v>4380000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="B21" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1">
-        <v>4620000</v>
+        <v>5000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1020000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1260000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1740000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B25" s="1">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1980000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B26" s="1">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>200000</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2220000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B27" s="1">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1">
+        <v>500000</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2460000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B28" s="1">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B29" s="1">
+        <v>13</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2940000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B30" s="1">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3180000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B31" s="1">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3420000</v>
       </c>
     </row>
   </sheetData>
